--- a/Data/beam_column_data.xlsx
+++ b/Data/beam_column_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulg\Documents\year 4\IIB_Project\code\mycode\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6129984-CC74-4BDB-AE1C-C594DF0679D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711A1469-01B0-421C-9260-6A4116F8CC4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="877" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
